--- a/calendar.xlsx
+++ b/calendar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>№</t>
   </si>
@@ -35,6 +35,15 @@
   </si>
   <si>
     <t>скелет сайта, классы автор, пользователи, подрядчики, проекты</t>
+  </si>
+  <si>
+    <t>Четверг</t>
+  </si>
+  <si>
+    <t>16.01.</t>
+  </si>
+  <si>
+    <t>работа над правами групп, страницами, создание нового проекта</t>
   </si>
 </sst>
 </file>
@@ -442,7 +451,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,18 +497,36 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>43475</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>

--- a/calendar.xlsx
+++ b/calendar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>№</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>работа над правами групп, страницами, создание нового проекта</t>
+  </si>
+  <si>
+    <t>список проектов, детали проекта</t>
   </si>
 </sst>
 </file>
@@ -103,7 +106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -116,6 +119,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -451,7 +455,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,10 +534,18 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="B5" s="6">
+        <v>43482</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>

--- a/calendar.xlsx
+++ b/calendar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>№</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>список проектов, детали проекта</t>
+  </si>
+  <si>
+    <t>Понедельник</t>
+  </si>
+  <si>
+    <t>рисование линии, накидал класс осей и элемента, но не проверял</t>
   </si>
 </sst>
 </file>
@@ -455,7 +461,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,10 +555,18 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="6">
+        <v>43486</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>

--- a/calendar.xlsx
+++ b/calendar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>№</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>рисование линии, накидал класс осей и элемента, но не проверял</t>
+  </si>
+  <si>
+    <t>Вторник</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пфтался разобраться с работой с бд из скрипта…. </t>
   </si>
 </sst>
 </file>
@@ -461,7 +467,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,10 +576,18 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="B7" s="6">
+        <v>43487</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
